--- a/Data/EC/NIT-8301376601.xlsx
+++ b/Data/EC/NIT-8301376601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C88F2ED-E854-4AD0-BE2B-96E8C7DC60DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09E8307-FD41-4D92-8952-CEEDCB16FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB5307F4-A646-4578-A39F-35E14055D225}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1FEB8407-9256-4B98-9011-E8A2F37600DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="133">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,334 +65,343 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047380529</t>
+  </si>
+  <si>
+    <t>KAREN MARGARITA BALLESTEROS RIVAS</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>45715559</t>
+  </si>
+  <si>
+    <t>ANA MILENA RAMOS PEREZ</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>1047476981</t>
   </si>
   <si>
     <t>LAURA ELIANA VEGA DIAZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>1703</t>
   </si>
   <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
     <t>1047470612</t>
   </si>
   <si>
     <t>MAIRA ALEJANDRA DE ORO SIMANCAS</t>
   </si>
   <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
     <t>1143380720</t>
   </si>
   <si>
     <t>YOHANIS SOFIA GOEZ ESTRADA</t>
   </si>
   <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>45715559</t>
-  </si>
-  <si>
-    <t>ANA MILENA RAMOS PEREZ</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
     <t>1045720141</t>
   </si>
   <si>
     <t>HELEN ESTEFANY HERNANDEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -806,7 +815,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E6F74A-8DBF-95F1-4118-E62D09198572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D939511-9863-6AFF-DE0C-35096609E864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,8 +1166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A0C39-F792-4351-8612-435E45EA7F5A}">
-  <dimension ref="B2:J174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5E5649-07A7-4E1B-B88D-A2823C4D9B44}">
+  <dimension ref="B2:J177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1169,7 +1178,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1182,7 +1191,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1227,7 +1236,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1259,12 +1268,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5765503</v>
+        <v>5843073</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1275,17 +1284,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1312,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1335,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36400</v>
+        <v>1170</v>
       </c>
       <c r="G16" s="18">
-        <v>910000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1349,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36400</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>910000</v>
+        <v>2032800</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1372,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>36400</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>910000</v>
+        <v>2032800</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1395,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="G19" s="18">
-        <v>910000</v>
+        <v>2032800</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1418,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>36400</v>
@@ -1441,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>36400</v>
@@ -1464,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>36400</v>
@@ -1487,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>36400</v>
@@ -1510,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>36400</v>
@@ -1533,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>36400</v>
@@ -1556,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>36400</v>
@@ -1579,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>36400</v>
@@ -1602,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>36400</v>
@@ -1625,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>36400</v>
@@ -1648,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>74999</v>
+        <v>36400</v>
       </c>
       <c r="G30" s="18">
-        <v>2032800</v>
+        <v>910000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1671,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>36400</v>
@@ -1694,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>36400</v>
@@ -1717,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>36400</v>
@@ -1740,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>36400</v>
@@ -1763,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>36400</v>
@@ -1786,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>36400</v>
@@ -1809,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>36400</v>
@@ -1832,13 +1841,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>36400</v>
@@ -1855,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>36400</v>
@@ -1878,13 +1887,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>36400</v>
@@ -1901,13 +1910,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>36400</v>
@@ -1924,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>36400</v>
@@ -1947,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>36400</v>
@@ -1970,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
         <v>36400</v>
@@ -1993,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>36400</v>
@@ -2016,13 +2025,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>36400</v>
@@ -2039,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
         <v>36400</v>
@@ -2062,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>36400</v>
@@ -2085,13 +2094,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
         <v>36400</v>
@@ -2108,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>36400</v>
@@ -2131,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
         <v>36400</v>
@@ -2154,13 +2163,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
         <v>36400</v>
@@ -2177,13 +2186,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
         <v>36400</v>
@@ -2200,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>36400</v>
@@ -2223,13 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
         <v>36400</v>
@@ -2246,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
         <v>36400</v>
@@ -2269,10 +2278,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>53</v>
@@ -2292,10 +2301,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>54</v>
@@ -2315,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>55</v>
@@ -2338,10 +2347,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>56</v>
@@ -2361,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>57</v>
@@ -2384,10 +2393,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>58</v>
@@ -2407,10 +2416,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>59</v>
@@ -2430,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>60</v>
@@ -2453,10 +2462,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>61</v>
@@ -2476,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>62</v>
@@ -2499,10 +2508,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>63</v>
@@ -2522,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>64</v>
@@ -2545,10 +2554,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>65</v>
@@ -2568,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F70" s="18">
-        <v>37333</v>
+        <v>36400</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2591,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G71" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2614,10 +2623,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>68</v>
@@ -2637,10 +2646,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>69</v>
@@ -2660,19 +2669,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2683,19 +2692,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G75" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2706,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>36400</v>
@@ -2729,19 +2738,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2752,13 +2761,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>36400</v>
@@ -2775,13 +2784,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
         <v>36400</v>
@@ -2798,19 +2807,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2821,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>36400</v>
@@ -2844,19 +2853,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2867,19 +2876,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G83" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2890,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>36400</v>
@@ -2913,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2936,13 +2945,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
         <v>36400</v>
@@ -2959,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G87" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2982,13 +2991,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
         <v>36400</v>
@@ -3005,19 +3014,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G89" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3028,13 +3037,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>36400</v>
@@ -3051,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3074,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
         <v>36400</v>
@@ -3097,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>35200</v>
+        <v>36400</v>
       </c>
       <c r="G93" s="18">
-        <v>2032800</v>
+        <v>910000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3120,13 +3129,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
         <v>36400</v>
@@ -3143,19 +3152,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3166,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3189,13 +3198,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F97" s="18">
         <v>36400</v>
@@ -3212,19 +3221,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F98" s="18">
-        <v>48000</v>
+        <v>36400</v>
       </c>
       <c r="G98" s="18">
-        <v>2032800</v>
+        <v>910000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3235,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3258,13 +3267,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F100" s="18">
         <v>36400</v>
@@ -3281,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F101" s="18">
-        <v>48000</v>
+        <v>36400</v>
       </c>
       <c r="G101" s="18">
-        <v>2032800</v>
+        <v>910000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3304,19 +3313,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G102" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3327,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F103" s="18">
         <v>36400</v>
@@ -3350,13 +3359,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F104" s="18">
         <v>36400</v>
@@ -3373,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G105" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3396,19 +3405,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F106" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G106" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3419,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F107" s="18">
         <v>36400</v>
@@ -3442,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3465,13 +3474,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F109" s="18">
         <v>36400</v>
@@ -3488,19 +3497,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F110" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G110" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3511,13 +3520,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F111" s="18">
         <v>36400</v>
@@ -3534,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F112" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G112" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3557,13 +3566,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F113" s="18">
         <v>36400</v>
@@ -3580,13 +3589,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F114" s="18">
         <v>36400</v>
@@ -3603,19 +3612,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F115" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G115" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3626,19 +3635,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F116" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G116" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3649,13 +3658,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F117" s="18">
         <v>36400</v>
@@ -3672,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F118" s="18">
         <v>36400</v>
@@ -3695,19 +3704,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F119" s="18">
-        <v>40000</v>
+        <v>36400</v>
       </c>
       <c r="G119" s="18">
-        <v>1000000</v>
+        <v>910000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3718,13 +3727,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F120" s="18">
         <v>36400</v>
@@ -3741,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F121" s="18">
-        <v>40000</v>
+        <v>74999</v>
       </c>
       <c r="G121" s="18">
-        <v>1000000</v>
+        <v>2032800</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3764,13 +3773,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3787,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F123" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3810,13 +3819,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
@@ -3833,19 +3842,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="F125" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3856,13 +3865,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3879,19 +3888,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="F127" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G127" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3902,19 +3911,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="F128" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G128" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3925,13 +3934,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="F129" s="18">
         <v>40000</v>
@@ -3948,19 +3957,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F130" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3971,13 +3980,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="F131" s="18">
         <v>40000</v>
@@ -3994,19 +4003,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F132" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4017,13 +4026,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="F133" s="18">
         <v>40000</v>
@@ -4040,13 +4049,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F134" s="18">
         <v>40000</v>
@@ -4063,19 +4072,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F135" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4086,13 +4095,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F136" s="18">
         <v>40000</v>
@@ -4109,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F137" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G137" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4132,13 +4141,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="F138" s="18">
         <v>40000</v>
@@ -4155,19 +4164,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F139" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4178,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="F140" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G140" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4201,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F141" s="18">
         <v>40000</v>
@@ -4224,19 +4233,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F142" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4247,13 +4256,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4270,19 +4279,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F144" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4293,13 +4302,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F145" s="18">
         <v>40000</v>
@@ -4316,19 +4325,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F146" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G146" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4339,13 +4348,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
@@ -4362,19 +4371,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F148" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G148" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4385,13 +4394,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4408,19 +4417,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F150" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G150" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4431,13 +4440,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="F151" s="18">
         <v>40000</v>
@@ -4454,19 +4463,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="F152" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G152" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4477,19 +4486,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F153" s="18">
-        <v>1971</v>
+        <v>40000</v>
       </c>
       <c r="G153" s="18">
-        <v>1478400</v>
+        <v>1000000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4500,13 +4509,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F154" s="18">
         <v>40000</v>
@@ -4523,19 +4532,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F155" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G155" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4546,13 +4555,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F156" s="18">
         <v>40000</v>
@@ -4569,19 +4578,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="F157" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4592,13 +4601,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="F158" s="18">
         <v>40000</v>
@@ -4615,13 +4624,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F159" s="18">
         <v>40000</v>
@@ -4638,19 +4647,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F160" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G160" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4661,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="F161" s="18">
         <v>40000</v>
@@ -4684,19 +4693,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F162" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G162" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4707,13 +4716,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="F163" s="18">
         <v>40000</v>
@@ -4730,19 +4739,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F164" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G164" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4753,13 +4762,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="F165" s="18">
         <v>40000</v>
@@ -4776,19 +4785,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F166" s="18">
-        <v>36400</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4799,13 +4808,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F167" s="18">
         <v>40000</v>
@@ -4818,56 +4827,125 @@
       <c r="J167" s="20"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E168" s="22" t="s">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F168" s="24">
-        <v>36400</v>
-      </c>
-      <c r="G168" s="24">
-        <v>910000</v>
-      </c>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="26"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="H173" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C174" s="32"/>
-      <c r="H174" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="D168" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F168" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G168" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B169" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F169" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G169" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B170" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" s="18">
+        <v>37333</v>
+      </c>
+      <c r="G170" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" s="24">
+        <v>1971</v>
+      </c>
+      <c r="G171" s="24">
+        <v>1478400</v>
+      </c>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="26"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="H176" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="32"/>
+      <c r="H177" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="H176:J176"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
